--- a/biology/Botanique/Rhizophagus_(insecte)/Rhizophagus_(insecte).xlsx
+++ b/biology/Botanique/Rhizophagus_(insecte)/Rhizophagus_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhizophagus est un genre de Coléoptères de la famille des Monotomidae et de la super-famille des Cucujoidea. Son espèce type est Rhizophagus bipustulatus
 Rhizophagus grandis est une espèce régulièrement citée en sylviculture dans la lutte biologique contre le Scolyte de l'Épicéa Dendroctonus micans dont il est un prédateur exclusif. Rhizophagus dispar se rencontre également souvent en association avec D. micans et d'autres espèces de Scolytes mais il est essentiellement saprophage et mycétophage.
